--- a/excel/2/1420 Terry - Initial Model.xlsx
+++ b/excel/2/1420 Terry - Initial Model.xlsx
@@ -9,12 +9,66 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$42</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$2:$F$42</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$2:$G$42</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$H$2:$H$42</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$I$2:$I$42</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$J$2:$J$42</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$K$2:$K$42</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$L$2:$L$42</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$M$2:$M$42</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$A$2:$A$42</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$2:$B$42</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$42</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$2:$C$42</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$D$2:$D$42</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$E$2:$E$42</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$F$2:$F$42</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$G$2:$G$42</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$H$2:$H$42</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$I$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$I$2:$I$42</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$J$2:$J$42</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$K$2:$K$42</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$L$2:$L$42</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$42</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$M$2:$M$42</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$42</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$2:$E$42</definedName>
+  </definedNames>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -166,6 +220,1532 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Equity and % Return</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>9043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25471.510261746647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42427.967176367121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59929.457235665119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77993.62391703506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96638.685971877712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115883.45631882094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135747.36156189092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156250.46215444762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177413.47323040105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199257.78612494384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>221805.49060778361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>245079.39785262698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>269103.06416746811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>293900.81551105483</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>319497.77282176103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>345919.87818597065</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>373193.92187399464</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>401347.57027247635</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>430409.39474322274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460408.90143939503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>491376.56211104197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>523343.84593302576</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>556343.2523895097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>590408.34525031957</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625573.78767568211</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>661875.37848707428</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>699350.08964318037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>738036.10496127477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>777972.86012569908</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>819201.08402651083</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>843777.11654730618</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>869090.43004372541</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>895163.14294503722</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>922018.0372333884</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>949678.57835039007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>978168.93570090178</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1007514.0037719288</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1037739.4238850868</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1068871.6066016394</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1100937.7547996887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F00C-B345-8B09-0A2C317D752D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1150534575"/>
+        <c:axId val="1150536271"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Return on Equity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8167101915013433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66570284762760379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41249890635925951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30142383252921612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23905879889202419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19914147376283184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17141277861457632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15103866739397936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13544287027474261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12312657261477711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11315846131453709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10492935581111644</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8024013953580985E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.214964318709723E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7093862826465668E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2698871828911891E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.884497367150764E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5439729181836807E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2410615195742212E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9699934672823885E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7261211881072425E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5056590580239715E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.305492404836073E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.1230351432320529E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.9561221836139856E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8029270929446465E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6618983533979469E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5317094958595957E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4112197080818714E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2994424373814783E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0000000000000041E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0000000000000051E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0000000000000054E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0000000000000068E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0000000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0000000000000082E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0000000000000093E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F00C-B345-8B09-0A2C317D752D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1140114287"/>
+        <c:axId val="1139953247"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1150534575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150536271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1150536271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150534575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1139953247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140114287"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1140114287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1139953247"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>729306</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125742</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49BB375-44CB-2141-976A-ACCC9F5E756C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,18 +2133,18 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H2" s="3">
-        <f>(A2-2012)*12</f>
+        <f t="shared" ref="H2:H32" si="1">(A2-2012)*12</f>
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I32" si="1">-328457*((1+G2)^360-(1+G2)^H2)/((1+G2)^360-1)</f>
+        <f t="shared" ref="I2:I32" si="2">-328457*((1+G2)^360-(1+G2)^H2)/((1+G2)^360-1)</f>
         <v>-328457</v>
       </c>
       <c r="J2" s="5">
         <v>337500</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K65" si="2">I2+J2</f>
+        <f t="shared" ref="K2:K65" si="3">I2+J2</f>
         <v>9043</v>
       </c>
       <c r="L2" s="7">
@@ -592,7 +2172,7 @@
         <v>-587.94999999999982</v>
       </c>
       <c r="F3" s="5">
-        <f>F2*(1+B3)</f>
+        <f t="shared" ref="F3:F34" si="4">F2*(1+B3)</f>
         <v>-467.62</v>
       </c>
       <c r="G3" s="10">
@@ -600,19 +2180,19 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H3" s="3">
-        <f>(A3-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-322153.48973825335</v>
       </c>
       <c r="J3" s="5">
-        <f>J2*(1+B3)</f>
+        <f t="shared" ref="J3:J34" si="5">J2*(1+B3)</f>
         <v>347625</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25471.510261746647</v>
       </c>
       <c r="L3" s="8">
@@ -642,7 +2222,7 @@
         <v>-587.94999999999982</v>
       </c>
       <c r="F4" s="5">
-        <f>F3*(1+B4)</f>
+        <f t="shared" si="4"/>
         <v>-481.64860000000004</v>
       </c>
       <c r="G4" s="10">
@@ -650,27 +2230,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H4" s="3">
-        <f>(A4-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-315625.78282363288</v>
       </c>
       <c r="J4" s="5">
-        <f>J3*(1+B4)</f>
+        <f t="shared" si="5"/>
         <v>358053.75</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42427.967176367121</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L67" si="3">K4-K3</f>
+        <f t="shared" ref="L4:L67" si="6">K4-K3</f>
         <v>16956.456914620474</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" ref="M4:M67" si="4">L4/K3</f>
+        <f t="shared" ref="M4:M67" si="7">L4/K3</f>
         <v>0.66570284762760379</v>
       </c>
     </row>
@@ -692,7 +2272,7 @@
         <v>-573.67000000000007</v>
       </c>
       <c r="F5" s="5">
-        <f>F4*(1+B5)</f>
+        <f t="shared" si="4"/>
         <v>-496.09805800000004</v>
       </c>
       <c r="G5" s="10">
@@ -700,27 +2280,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H5" s="3">
-        <f>(A5-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-308865.90526433487</v>
       </c>
       <c r="J5" s="5">
-        <f>J4*(1+B5)</f>
+        <f t="shared" si="5"/>
         <v>368795.36249999999</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59929.457235665119</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17501.490059297998</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.41249890635925951</v>
       </c>
     </row>
@@ -742,7 +2322,7 @@
         <v>-573.67000000000007</v>
       </c>
       <c r="F6" s="5">
-        <f>F5*(1+B6)</f>
+        <f t="shared" si="4"/>
         <v>-510.98099974000007</v>
       </c>
       <c r="G6" s="10">
@@ -750,15 +2330,15 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H6" s="3">
-        <f>(A6-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-301865.59945796494</v>
       </c>
       <c r="J6" s="5">
-        <f>J5*(1+B6)</f>
+        <f t="shared" si="5"/>
         <v>379859.223375</v>
       </c>
       <c r="K6" s="5">
@@ -766,11 +2346,11 @@
         <v>77993.62391703506</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18064.166681369941</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.30142383252921612</v>
       </c>
     </row>
@@ -792,7 +2372,7 @@
         <v>-590.88010000000008</v>
       </c>
       <c r="F7" s="12">
-        <f>F6*(1+B7)</f>
+        <f t="shared" si="4"/>
         <v>-526.31042973220008</v>
       </c>
       <c r="G7" s="10">
@@ -800,27 +2380,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H7" s="3">
-        <f>(A7-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-294616.31410437229</v>
       </c>
       <c r="J7" s="5">
-        <f>J6*(1+B7)</f>
+        <f t="shared" si="5"/>
         <v>391255.00007625</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96638.685971877712</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18645.062054842652</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.23905879889202419</v>
       </c>
     </row>
@@ -833,18 +2413,18 @@
         <v>0.03</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C32" si="5">C7</f>
+        <f t="shared" ref="C8:C32" si="8">C7</f>
         <v>-1475</v>
       </c>
       <c r="D8" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E8:E71" si="6">E7*1.03</f>
+        <f t="shared" ref="E8:E71" si="9">E7*1.03</f>
         <v>-608.60650300000009</v>
       </c>
       <c r="F8" s="5">
-        <f>F7*(1+B8)</f>
+        <f t="shared" si="4"/>
         <v>-542.09974262416608</v>
       </c>
       <c r="G8" s="10">
@@ -852,27 +2432,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H8" s="3">
-        <f>(A8-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-287109.19375971658</v>
       </c>
       <c r="J8" s="5">
-        <f>J7*(1+B8)</f>
+        <f t="shared" si="5"/>
         <v>402992.65007853752</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115883.45631882094</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19244.770346943231</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.19914147376283184</v>
       </c>
     </row>
@@ -885,18 +2465,18 @@
         <v>0.03</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D9" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-626.86469809000016</v>
       </c>
       <c r="F9" s="5">
-        <f>F8*(1+B9)</f>
+        <f t="shared" si="4"/>
         <v>-558.36273490289113</v>
       </c>
       <c r="G9" s="10">
@@ -904,27 +2484,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H9" s="3">
-        <f>(A9-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-279335.06801900273</v>
       </c>
       <c r="J9" s="5">
-        <f>J8*(1+B9)</f>
+        <f t="shared" si="5"/>
         <v>415082.42958089366</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135747.36156189092</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19863.905243069981</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.17141277861457632</v>
       </c>
     </row>
@@ -937,18 +2517,18 @@
         <v>0.03</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D10" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-645.67063903270014</v>
       </c>
       <c r="F10" s="5">
-        <f>F9*(1+B10)</f>
+        <f t="shared" si="4"/>
         <v>-575.11361694997788</v>
       </c>
       <c r="G10" s="10">
@@ -956,27 +2536,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H10" s="3">
-        <f>(A10-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-271284.44031387288</v>
       </c>
       <c r="J10" s="5">
-        <f>J9*(1+B10)</f>
+        <f t="shared" si="5"/>
         <v>427534.90246832051</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156250.46215444762</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20503.100592556701</v>
       </c>
       <c r="M10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.15103866739397936</v>
       </c>
     </row>
@@ -989,18 +2569,18 @@
         <v>0.03</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D11" s="5">
         <v>-290.04000000000002</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-665.04075820368121</v>
       </c>
       <c r="F11" s="5">
-        <f>F10*(1+B11)</f>
+        <f t="shared" si="4"/>
         <v>-592.3670254584772</v>
       </c>
       <c r="G11" s="10">
@@ -1008,27 +2588,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H11" s="3">
-        <f>(A11-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-262947.47631196911</v>
       </c>
       <c r="J11" s="5">
-        <f>J10*(1+B11)</f>
+        <f t="shared" si="5"/>
         <v>440360.94954237016</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177413.47323040105</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21163.011075953429</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.13544287027474261</v>
       </c>
     </row>
@@ -1041,7 +2621,7 @@
         <v>0.03</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D12" s="5">
@@ -1052,7 +2632,7 @@
         <v>-684.9919809497917</v>
       </c>
       <c r="F12" s="5">
-        <f>F11*(1+B12)</f>
+        <f t="shared" si="4"/>
         <v>-610.13803622223156</v>
       </c>
       <c r="G12" s="10">
@@ -1060,27 +2640,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H12" s="3">
-        <f>(A12-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-254313.99190369746</v>
       </c>
       <c r="J12" s="5">
-        <f>J11*(1+B12)</f>
+        <f t="shared" si="5"/>
         <v>453571.7780286413</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>199257.78612494384</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21844.312894542789</v>
       </c>
       <c r="M12" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.12312657261477711</v>
       </c>
     </row>
@@ -1093,18 +2673,18 @@
         <v>0.03</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-705.54174037828545</v>
       </c>
       <c r="F13" s="5">
-        <f>F12*(1+B13)</f>
+        <f t="shared" si="4"/>
         <v>-628.44217730889852</v>
       </c>
       <c r="G13" s="10">
@@ -1112,27 +2692,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H13" s="3">
-        <f>(A13-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-245373.44076171692</v>
       </c>
       <c r="J13" s="5">
-        <f>J12*(1+B13)</f>
+        <f t="shared" si="5"/>
         <v>467178.93136950053</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>221805.49060778361</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22547.704482839763</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.11315846131453709</v>
       </c>
     </row>
@@ -1145,18 +2725,18 @@
         <v>0.03</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-726.70799258963405</v>
       </c>
       <c r="F14" s="5">
-        <f>F13*(1+B14)</f>
+        <f t="shared" si="4"/>
         <v>-647.29544262816546</v>
       </c>
       <c r="G14" s="10">
@@ -1164,27 +2744,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H14" s="3">
-        <f>(A14-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-236114.90145795856</v>
       </c>
       <c r="J14" s="5">
-        <f>J13*(1+B14)</f>
+        <f t="shared" si="5"/>
         <v>481194.29931058554</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245079.39785262698</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23273.907244843373</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10492935581111644</v>
       </c>
     </row>
@@ -1197,18 +2777,18 @@
         <v>0.03</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-748.50923236732308</v>
       </c>
       <c r="F15" s="5">
-        <f>F14*(1+B15)</f>
+        <f t="shared" si="4"/>
         <v>-666.7143059070105</v>
       </c>
       <c r="G15" s="10">
@@ -1216,27 +2796,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H15" s="3">
-        <f>(A15-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-226527.06412243503</v>
       </c>
       <c r="J15" s="5">
-        <f>J14*(1+B15)</f>
+        <f t="shared" si="5"/>
         <v>495630.12828990311</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>269103.06416746811</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24023.666314841132</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.8024013953580985E-2</v>
       </c>
     </row>
@@ -1249,18 +2829,18 @@
         <v>0.03</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-770.96450933834274</v>
       </c>
       <c r="F16" s="5">
-        <f>F15*(1+B16)</f>
+        <f t="shared" si="4"/>
         <v>-686.7157350842208</v>
       </c>
       <c r="G16" s="10">
@@ -1268,27 +2848,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H16" s="3">
-        <f>(A16-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-216598.21662754533</v>
       </c>
       <c r="J16" s="5">
-        <f>J15*(1+B16)</f>
+        <f t="shared" si="5"/>
         <v>510499.03213860019</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>293900.81551105483</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24797.751343586715</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.214964318709723E-2</v>
       </c>
     </row>
@@ -1301,18 +2881,18 @@
         <v>0.03</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-794.09344461849309</v>
       </c>
       <c r="F17" s="5">
-        <f>F16*(1+B17)</f>
+        <f t="shared" si="4"/>
         <v>-707.31720713674747</v>
       </c>
       <c r="G17" s="10">
@@ -1320,27 +2900,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H17" s="3">
-        <f>(A17-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-206316.23028099717</v>
       </c>
       <c r="J17" s="5">
-        <f>J16*(1+B17)</f>
+        <f t="shared" si="5"/>
         <v>525814.0031027582</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>319497.77282176103</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25596.957310706202</v>
       </c>
       <c r="M17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.7093862826465668E-2</v>
       </c>
     </row>
@@ -1353,18 +2933,18 @@
         <v>0.03</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-817.91624795704786</v>
       </c>
       <c r="F18" s="5">
-        <f>F17*(1+B18)</f>
+        <f t="shared" si="4"/>
         <v>-728.53672335084991</v>
       </c>
       <c r="G18" s="10">
@@ -1372,27 +2952,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H18" s="3">
-        <f>(A18-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-195668.54500987026</v>
       </c>
       <c r="J18" s="5">
-        <f>J17*(1+B18)</f>
+        <f t="shared" si="5"/>
         <v>541588.42319584091</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>345919.87818597065</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26422.105364209623</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.2698871828911891E-2</v>
       </c>
     </row>
@@ -1405,18 +2985,18 @@
         <v>0.03</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-842.45373539575928</v>
       </c>
       <c r="F19" s="5">
-        <f>F18*(1+B19)</f>
+        <f t="shared" si="4"/>
         <v>-750.39282505137544</v>
       </c>
       <c r="G19" s="10">
@@ -1424,27 +3004,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H19" s="3">
-        <f>(A19-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-184642.15401772154</v>
       </c>
       <c r="J19" s="5">
-        <f>J18*(1+B19)</f>
+        <f t="shared" si="5"/>
         <v>557836.07589171617</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>373193.92187399464</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27274.043688023987</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.884497367150764E-2</v>
       </c>
     </row>
@@ -1457,18 +3037,18 @@
         <v>0.03</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-867.72734745763205</v>
       </c>
       <c r="F20" s="5">
-        <f>F19*(1+B20)</f>
+        <f t="shared" si="4"/>
         <v>-772.90460980291675</v>
       </c>
       <c r="G20" s="10">
@@ -1476,27 +3056,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H20" s="3">
-        <f>(A20-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-173223.58789599134</v>
       </c>
       <c r="J20" s="5">
-        <f>J19*(1+B20)</f>
+        <f t="shared" si="5"/>
         <v>574571.15816846769</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>401347.57027247635</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28153.648398481717</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.5439729181836807E-2</v>
       </c>
     </row>
@@ -1509,18 +3089,18 @@
         <v>0.03</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-893.75916788136101</v>
       </c>
       <c r="F21" s="5">
-        <f>F20*(1+B21)</f>
+        <f t="shared" si="4"/>
         <v>-796.09174809700426</v>
       </c>
       <c r="G21" s="6">
@@ -1528,27 +3108,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H21">
-        <f>(A21-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>228</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-161398.89817029901</v>
       </c>
       <c r="J21" s="7">
-        <f>J20*(1+B21)</f>
+        <f t="shared" si="5"/>
         <v>591808.29291352176</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430409.39474322274</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29061.824470746389</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.2410615195742212E-2</v>
       </c>
     </row>
@@ -1561,18 +3141,18 @@
         <v>0.03</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-920.57194291780183</v>
       </c>
       <c r="F22" s="5">
-        <f>F21*(1+B22)</f>
+        <f t="shared" si="4"/>
         <v>-819.9745005399144</v>
       </c>
       <c r="G22" s="6">
@@ -1580,27 +3160,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H22">
-        <f>(A22-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-149153.64026153236</v>
       </c>
       <c r="J22" s="7">
-        <f>J21*(1+B22)</f>
+        <f t="shared" si="5"/>
         <v>609562.54170092742</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>460408.90143939503</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29999.506696172291</v>
       </c>
       <c r="M22" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.9699934672823885E-2</v>
       </c>
     </row>
@@ -1613,18 +3193,18 @@
         <v>0.03</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D23" s="5">
         <v>0</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-948.18910120533587</v>
       </c>
       <c r="F23" s="5">
-        <f>F22*(1+B23)</f>
+        <f t="shared" si="4"/>
         <v>-844.57373555611184</v>
       </c>
       <c r="G23" s="6">
@@ -1632,27 +3212,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H23">
-        <f>(A23-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-136472.85584091322</v>
       </c>
       <c r="J23" s="7">
-        <f>J22*(1+B23)</f>
+        <f t="shared" si="5"/>
         <v>627849.41795195523</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>491376.56211104197</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30967.66067164694</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.7261211881072425E-2</v>
       </c>
     </row>
@@ -1665,18 +3245,18 @@
         <v>0.03</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D24" s="5">
         <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-976.63477424149596</v>
       </c>
       <c r="F24" s="5">
-        <f>F23*(1+B24)</f>
+        <f t="shared" si="4"/>
         <v>-869.91094762279522</v>
       </c>
       <c r="G24" s="6">
@@ -1684,27 +3264,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H24">
-        <f>(A24-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-123341.05455748811</v>
       </c>
       <c r="J24" s="7">
-        <f>J23*(1+B24)</f>
+        <f t="shared" si="5"/>
         <v>646684.90049051389</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>523343.84593302576</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31967.283821983787</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.5056590580239715E-2</v>
       </c>
     </row>
@@ -1717,18 +3297,18 @@
         <v>0.03</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1005.9338174687408</v>
       </c>
       <c r="F25" s="5">
-        <f>F24*(1+B25)</f>
+        <f t="shared" si="4"/>
         <v>-896.00827605147913</v>
       </c>
       <c r="G25" s="6">
@@ -1736,27 +3316,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H25">
-        <f>(A25-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-109742.19511571953</v>
       </c>
       <c r="J25" s="7">
-        <f>J24*(1+B25)</f>
+        <f t="shared" si="5"/>
         <v>666085.44750522927</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>556343.2523895097</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32999.406456483935</v>
       </c>
       <c r="M25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.305492404836073E-2</v>
       </c>
     </row>
@@ -1769,18 +3349,18 @@
         <v>0.03</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1036.111831992803</v>
       </c>
       <c r="F26" s="5">
-        <f>F25*(1+B26)</f>
+        <f t="shared" si="4"/>
         <v>-922.8885243330235</v>
       </c>
       <c r="G26" s="6">
@@ -1788,27 +3368,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H26">
-        <f>(A26-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>288</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-95659.66568006661</v>
       </c>
       <c r="J26" s="7">
-        <f>J25*(1+B26)</f>
+        <f t="shared" si="5"/>
         <v>686068.01093038614</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>590408.34525031957</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>34065.092860809877</v>
       </c>
       <c r="M26" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.1230351432320529E-2</v>
       </c>
     </row>
@@ -1821,18 +3401,18 @@
         <v>0.03</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D27" s="5">
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1067.1951869525872</v>
       </c>
       <c r="F27" s="5">
-        <f>F26*(1+B27)</f>
+        <f t="shared" si="4"/>
         <v>-950.57518006301427</v>
       </c>
       <c r="G27" s="6">
@@ -1840,27 +3420,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H27">
-        <f>(A27-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-81076.263582615604</v>
       </c>
       <c r="J27" s="7">
-        <f>J26*(1+B27)</f>
+        <f t="shared" si="5"/>
         <v>706650.05125829775</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>625573.78767568211</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35165.442425362533</v>
       </c>
       <c r="M27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.9561221836139856E-2</v>
       </c>
     </row>
@@ -1873,18 +3453,18 @@
         <v>0.03</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D28" s="5">
         <v>0</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1099.2110425611647</v>
       </c>
       <c r="F28" s="5">
-        <f>F27*(1+B28)</f>
+        <f t="shared" si="4"/>
         <v>-979.09243546490472</v>
       </c>
       <c r="G28" s="6">
@@ -1892,27 +3472,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H28">
-        <f>(A28-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>312</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-65974.174308972491</v>
       </c>
       <c r="J28" s="7">
-        <f>J27*(1+B28)</f>
+        <f t="shared" si="5"/>
         <v>727849.55279604672</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>661875.37848707428</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36301.590811392176</v>
       </c>
       <c r="M28" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.8029270929446465E-2</v>
       </c>
     </row>
@@ -1925,18 +3505,18 @@
         <v>0.03</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1132.1873738379998</v>
       </c>
       <c r="F29" s="5">
-        <f>F28*(1+B29)</f>
+        <f t="shared" si="4"/>
         <v>-1008.4652085288519</v>
       </c>
       <c r="G29" s="6">
@@ -1944,27 +3524,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H29">
-        <f>(A29-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-50334.94973674776</v>
       </c>
       <c r="J29" s="7">
-        <f>J28*(1+B29)</f>
+        <f t="shared" si="5"/>
         <v>749685.03937992814</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>699350.08964318037</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37474.711156106088</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.6618983533979469E-2</v>
       </c>
     </row>
@@ -1977,18 +3557,18 @@
         <v>0.03</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D30" s="5">
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1166.1529950531399</v>
       </c>
       <c r="F30" s="5">
-        <f>F29*(1+B30)</f>
+        <f t="shared" si="4"/>
         <v>-1038.7191647847176</v>
       </c>
       <c r="G30" s="6">
@@ -1996,27 +3576,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H30">
-        <f>(A30-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-34139.485600051208</v>
       </c>
       <c r="J30" s="7">
-        <f>J29*(1+B30)</f>
+        <f t="shared" si="5"/>
         <v>772175.59056132601</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>738036.10496127477</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38686.015318094403</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.5317094958595957E-2</v>
       </c>
     </row>
@@ -2029,18 +3609,18 @@
         <v>0.03</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D31" s="5">
         <v>0</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1201.137584904734</v>
       </c>
       <c r="F31" s="5">
-        <f>F30*(1+B31)</f>
+        <f t="shared" si="4"/>
         <v>-1069.8807397282592</v>
       </c>
       <c r="G31" s="6">
@@ -2048,27 +3628,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H31">
-        <f>(A31-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>348</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-17367.998152466684</v>
       </c>
       <c r="J31" s="7">
-        <f>J30*(1+B31)</f>
+        <f t="shared" si="5"/>
         <v>795340.8582781658</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>777972.86012569908</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39936.755164424307</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.4112197080818714E-2</v>
       </c>
     </row>
@@ -2081,18 +3661,18 @@
         <v>0.03</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1475</v>
       </c>
       <c r="D32" s="5">
         <v>0</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1237.1717124518761</v>
       </c>
       <c r="F32" s="5">
-        <f>F31*(1+B32)</f>
+        <f t="shared" si="4"/>
         <v>-1101.9771619201069</v>
       </c>
       <c r="G32" s="6">
@@ -2100,27 +3680,27 @@
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="H32">
-        <f>(A32-2012)*12</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J32" s="7">
-        <f>J31*(1+B32)</f>
+        <f t="shared" si="5"/>
         <v>819201.08402651083</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>819201.08402651083</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41228.223900811747</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.2994424373814783E-2</v>
       </c>
     </row>
@@ -2139,30 +3719,30 @@
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1274.2868638254324</v>
       </c>
       <c r="F33" s="5">
-        <f>F32*(1+B33)</f>
+        <f t="shared" si="4"/>
         <v>-1135.0364767777103</v>
       </c>
       <c r="I33" s="7">
         <v>0</v>
       </c>
       <c r="J33" s="7">
-        <f>J32*(1+B33)</f>
+        <f t="shared" si="5"/>
         <v>843777.11654730618</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>843777.11654730618</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24576.032520795357</v>
       </c>
       <c r="M33" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000041E-2</v>
       </c>
     </row>
@@ -2181,30 +3761,30 @@
         <v>0</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1312.5154697401954</v>
       </c>
       <c r="F34" s="5">
-        <f>F33*(1+B34)</f>
+        <f t="shared" si="4"/>
         <v>-1169.0875710810417</v>
       </c>
       <c r="I34" s="7">
         <v>0</v>
       </c>
       <c r="J34" s="7">
-        <f>J33*(1+B34)</f>
+        <f t="shared" si="5"/>
         <v>869090.43004372541</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>869090.43004372541</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="3"/>
+        <f>K34-K33</f>
         <v>25313.313496419229</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000051E-2</v>
       </c>
     </row>
@@ -2223,30 +3803,30 @@
         <v>0</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1351.8909338324013</v>
       </c>
       <c r="F35" s="5">
-        <f>F34*(1+B35)</f>
+        <f t="shared" ref="F35:F71" si="10">F34*(1+B35)</f>
         <v>-1204.160198213473</v>
       </c>
       <c r="I35" s="7">
         <v>0</v>
       </c>
       <c r="J35" s="7">
-        <f>J34*(1+B35)</f>
+        <f t="shared" ref="J35:J71" si="11">J34*(1+B35)</f>
         <v>895163.14294503722</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>895163.14294503722</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26072.71290131181</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000054E-2</v>
       </c>
     </row>
@@ -2265,30 +3845,30 @@
         <v>0</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1392.4476618473734</v>
       </c>
       <c r="F36" s="5">
-        <f>F35*(1+B36)</f>
+        <f t="shared" si="10"/>
         <v>-1240.2850041598772</v>
       </c>
       <c r="I36" s="7">
         <v>0</v>
       </c>
       <c r="J36" s="7">
-        <f>J35*(1+B36)</f>
+        <f t="shared" si="11"/>
         <v>922018.0372333884</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>922018.0372333884</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26854.894288351177</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000068E-2</v>
       </c>
     </row>
@@ -2307,30 +3887,30 @@
         <v>0</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1434.2210917027946</v>
       </c>
       <c r="F37" s="5">
-        <f>F36*(1+B37)</f>
+        <f t="shared" si="10"/>
         <v>-1277.4935542846736</v>
       </c>
       <c r="I37" s="7">
         <v>0</v>
       </c>
       <c r="J37" s="7">
-        <f>J36*(1+B37)</f>
+        <f t="shared" si="11"/>
         <v>949678.57835039007</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>949678.57835039007</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27660.541117001674</v>
       </c>
       <c r="M37" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000023E-2</v>
       </c>
     </row>
@@ -2349,30 +3929,30 @@
         <v>0</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1477.2477244538786</v>
       </c>
       <c r="F38" s="5">
-        <f>F37*(1+B38)</f>
+        <f t="shared" si="10"/>
         <v>-1315.8183609132138</v>
       </c>
       <c r="I38" s="7">
         <v>0</v>
       </c>
       <c r="J38" s="7">
-        <f>J37*(1+B38)</f>
+        <f t="shared" si="11"/>
         <v>978168.93570090178</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>978168.93570090178</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28490.357350511709</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000006E-2</v>
       </c>
     </row>
@@ -2391,30 +3971,30 @@
         <v>0</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1521.5651561874949</v>
       </c>
       <c r="F39" s="5">
-        <f>F38*(1+B39)</f>
+        <f t="shared" si="10"/>
         <v>-1355.2929117406102</v>
       </c>
       <c r="I39" s="7">
         <v>0</v>
       </c>
       <c r="J39" s="7">
-        <f>J38*(1+B39)</f>
+        <f t="shared" si="11"/>
         <v>1007514.0037719288</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1007514.0037719288</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29345.068071027054</v>
       </c>
       <c r="M39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
     </row>
@@ -2433,30 +4013,30 @@
         <v>0</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1567.2121108731199</v>
       </c>
       <c r="F40" s="5">
-        <f>F39*(1+B40)</f>
+        <f t="shared" si="10"/>
         <v>-1395.9516990928284</v>
       </c>
       <c r="I40" s="7">
         <v>0</v>
       </c>
       <c r="J40" s="7">
-        <f>J39*(1+B40)</f>
+        <f t="shared" si="11"/>
         <v>1037739.4238850868</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1037739.4238850868</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30225.420113157947</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000082E-2</v>
       </c>
     </row>
@@ -2475,30 +4055,30 @@
         <v>0</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1614.2284741993135</v>
       </c>
       <c r="F41" s="5">
-        <f>F40*(1+B41)</f>
+        <f t="shared" si="10"/>
         <v>-1437.8302500656134</v>
       </c>
       <c r="I41" s="7">
         <v>0</v>
       </c>
       <c r="J41" s="7">
-        <f>J40*(1+B41)</f>
+        <f t="shared" si="11"/>
         <v>1068871.6066016394</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1068871.6066016394</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31132.182716552634</v>
       </c>
       <c r="M41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.000000000000003E-2</v>
       </c>
     </row>
@@ -2517,30 +4097,30 @@
         <v>0</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1662.655328425293</v>
       </c>
       <c r="F42" s="5">
-        <f>F41*(1+B42)</f>
+        <f t="shared" si="10"/>
         <v>-1480.9651575675819</v>
       </c>
       <c r="I42" s="7">
         <v>0</v>
       </c>
       <c r="J42" s="7">
-        <f>J41*(1+B42)</f>
+        <f t="shared" si="11"/>
         <v>1100937.7547996887</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1100937.7547996887</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32066.148198049283</v>
       </c>
       <c r="M42" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000093E-2</v>
       </c>
     </row>
@@ -2559,30 +4139,30 @@
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1712.5349882780517</v>
       </c>
       <c r="F43" s="5">
-        <f>F42*(1+B43)</f>
+        <f t="shared" si="10"/>
         <v>-1525.3941122946094</v>
       </c>
       <c r="I43" s="7">
         <v>0</v>
       </c>
       <c r="J43" s="7">
-        <f>J42*(1+B43)</f>
+        <f t="shared" si="11"/>
         <v>1133965.8874436794</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1133965.8874436794</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33028.132643990684</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.000000000000002E-2</v>
       </c>
     </row>
@@ -2601,30 +4181,30 @@
         <v>0</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1763.9110379263934</v>
       </c>
       <c r="F44" s="5">
-        <f>F43*(1+B44)</f>
+        <f t="shared" si="10"/>
         <v>-1571.1559356634477</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
       </c>
       <c r="J44" s="7">
-        <f>J43*(1+B44)</f>
+        <f t="shared" si="11"/>
         <v>1167984.8640669899</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1167984.8640669899</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>34018.976623310475</v>
       </c>
       <c r="M44" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000082E-2</v>
       </c>
     </row>
@@ -2643,30 +4223,30 @@
         <v>0</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1816.8283690641854</v>
       </c>
       <c r="F45" s="5">
-        <f>F44*(1+B45)</f>
+        <f t="shared" si="10"/>
         <v>-1618.2906137333512</v>
       </c>
       <c r="I45" s="7">
         <v>0</v>
       </c>
       <c r="J45" s="7">
-        <f>J44*(1+B45)</f>
+        <f t="shared" si="11"/>
         <v>1203024.4099889996</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1203024.4099889996</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35039.54592200974</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000037E-2</v>
       </c>
     </row>
@@ -2685,30 +4265,30 @@
         <v>0</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1871.3332201361111</v>
       </c>
       <c r="F46" s="5">
-        <f>F45*(1+B46)</f>
+        <f t="shared" si="10"/>
         <v>-1666.8393321453518</v>
       </c>
       <c r="I46" s="7">
         <v>0</v>
       </c>
       <c r="J46" s="7">
-        <f>J45*(1+B46)</f>
+        <f t="shared" si="11"/>
         <v>1239115.1422886697</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1239115.1422886697</v>
       </c>
       <c r="L46" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36090.732299670111</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000103E-2</v>
       </c>
     </row>
@@ -2727,30 +4307,30 @@
         <v>0</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1927.4732167401944</v>
       </c>
       <c r="F47" s="5">
-        <f>F46*(1+B47)</f>
+        <f t="shared" si="10"/>
         <v>-1716.8445121097125</v>
       </c>
       <c r="I47" s="7">
         <v>0</v>
       </c>
       <c r="J47" s="7">
-        <f>J46*(1+B47)</f>
+        <f t="shared" si="11"/>
         <v>1276288.5965573299</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1276288.5965573299</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37173.454268660164</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000058E-2</v>
       </c>
     </row>
@@ -2769,30 +4349,30 @@
         <v>0</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1985.2974132424004</v>
       </c>
       <c r="F48" s="5">
-        <f>F47*(1+B48)</f>
+        <f t="shared" si="10"/>
         <v>-1768.3498474730038</v>
       </c>
       <c r="I48" s="7">
         <v>0</v>
       </c>
       <c r="J48" s="7">
-        <f>J47*(1+B48)</f>
+        <f t="shared" si="11"/>
         <v>1314577.2544540497</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1314577.2544540497</v>
       </c>
       <c r="L48" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38288.657896719873</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999982E-2</v>
       </c>
     </row>
@@ -2811,30 +4391,30 @@
         <v>0</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2044.8563356396724</v>
       </c>
       <c r="F49" s="5">
-        <f>F48*(1+B49)</f>
+        <f t="shared" si="10"/>
         <v>-1821.4003428971939</v>
       </c>
       <c r="I49" s="7">
         <v>0</v>
       </c>
       <c r="J49" s="7">
-        <f>J48*(1+B49)</f>
+        <f t="shared" si="11"/>
         <v>1354014.5720876714</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1354014.5720876714</v>
       </c>
       <c r="L49" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39437.317633621627</v>
       </c>
       <c r="M49" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000103E-2</v>
       </c>
     </row>
@@ -2853,30 +4433,30 @@
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2106.2020257088625</v>
       </c>
       <c r="F50" s="5">
-        <f>F49*(1+B50)</f>
+        <f t="shared" si="10"/>
         <v>-1876.0423531841097</v>
       </c>
       <c r="I50" s="7">
         <v>0</v>
       </c>
       <c r="J50" s="7">
-        <f>J49*(1+B50)</f>
+        <f t="shared" si="11"/>
         <v>1394635.0092503016</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1394635.0092503016</v>
       </c>
       <c r="L50" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40620.43716263026</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000089E-2</v>
       </c>
     </row>
@@ -2895,30 +4475,30 @@
         <v>0</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2169.3880864801285</v>
       </c>
       <c r="F51" s="5">
-        <f>F50*(1+B51)</f>
+        <f t="shared" si="10"/>
         <v>-1932.3236237796332</v>
       </c>
       <c r="I51" s="7">
         <v>0</v>
       </c>
       <c r="J51" s="7">
-        <f>J50*(1+B51)</f>
+        <f t="shared" si="11"/>
         <v>1436474.0595278107</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1436474.0595278107</v>
       </c>
       <c r="L51" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41839.050277509028</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999985E-2</v>
       </c>
     </row>
@@ -2937,30 +4517,30 @@
         <v>0</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2234.4697290745326</v>
       </c>
       <c r="F52" s="5">
-        <f>F51*(1+B52)</f>
+        <f t="shared" si="10"/>
         <v>-1990.2933324930223</v>
       </c>
       <c r="I52" s="7">
         <v>0</v>
       </c>
       <c r="J52" s="7">
-        <f>J51*(1+B52)</f>
+        <f t="shared" si="11"/>
         <v>1479568.281313645</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1479568.281313645</v>
       </c>
       <c r="L52" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>43094.221785834292</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999982E-2</v>
       </c>
     </row>
@@ -2979,30 +4559,30 @@
         <v>0</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2301.5038209467684</v>
       </c>
       <c r="F53" s="5">
-        <f>F52*(1+B53)</f>
+        <f t="shared" si="10"/>
         <v>-2050.0021324678128</v>
       </c>
       <c r="I53" s="7">
         <v>0</v>
       </c>
       <c r="J53" s="7">
-        <f>J52*(1+B53)</f>
+        <f t="shared" si="11"/>
         <v>1523955.3297530543</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1523955.3297530543</v>
       </c>
       <c r="L53" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44387.048439409351</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000002E-2</v>
       </c>
     </row>
@@ -3021,30 +4601,30 @@
         <v>0</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2370.5489355751715</v>
       </c>
       <c r="F54" s="5">
-        <f>F53*(1+B54)</f>
+        <f t="shared" si="10"/>
         <v>-2111.502196441847</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
       </c>
       <c r="J54" s="7">
-        <f>J53*(1+B54)</f>
+        <f t="shared" si="11"/>
         <v>1569673.989645646</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1569673.989645646</v>
       </c>
       <c r="L54" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45718.659892591648</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000013E-2</v>
       </c>
     </row>
@@ -3063,30 +4643,30 @@
         <v>0</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2441.6654036424266</v>
       </c>
       <c r="F55" s="5">
-        <f>F54*(1+B55)</f>
+        <f t="shared" si="10"/>
         <v>-2174.8472623351026</v>
       </c>
       <c r="I55" s="7">
         <v>0</v>
       </c>
       <c r="J55" s="7">
-        <f>J54*(1+B55)</f>
+        <f t="shared" si="11"/>
         <v>1616764.2093350154</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1616764.2093350154</v>
       </c>
       <c r="L55" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47090.219689369434</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000037E-2</v>
       </c>
     </row>
@@ -3105,30 +4685,30 @@
         <v>0</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2514.9153657516995</v>
       </c>
       <c r="F56" s="5">
-        <f>F55*(1+B56)</f>
+        <f t="shared" si="10"/>
         <v>-2240.0926802051558</v>
       </c>
       <c r="I56" s="7">
         <v>0</v>
       </c>
       <c r="J56" s="7">
-        <f>J55*(1+B56)</f>
+        <f t="shared" si="11"/>
         <v>1665267.1356150659</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1665267.1356150659</v>
       </c>
       <c r="L56" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48502.926280050538</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000047E-2</v>
       </c>
     </row>
@@ -3147,30 +4727,30 @@
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2590.3628267242507</v>
       </c>
       <c r="F57" s="5">
-        <f>F56*(1+B57)</f>
+        <f t="shared" si="10"/>
         <v>-2307.2954606113108</v>
       </c>
       <c r="I57" s="7">
         <v>0</v>
       </c>
       <c r="J57" s="7">
-        <f>J56*(1+B57)</f>
+        <f t="shared" si="11"/>
         <v>1715225.1496835179</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1715225.1496835179</v>
       </c>
       <c r="L57" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49958.014068451943</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999978E-2</v>
       </c>
     </row>
@@ -3189,30 +4769,30 @@
         <v>0</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2668.0737115259781</v>
       </c>
       <c r="F58" s="5">
-        <f>F57*(1+B58)</f>
+        <f t="shared" si="10"/>
         <v>-2376.5143244296501</v>
       </c>
       <c r="I58" s="7">
         <v>0</v>
       </c>
       <c r="J58" s="7">
-        <f>J57*(1+B58)</f>
+        <f t="shared" si="11"/>
         <v>1766681.9041740235</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1766681.9041740235</v>
       </c>
       <c r="L58" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51456.754490505671</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000079E-2</v>
       </c>
     </row>
@@ -3231,30 +4811,30 @@
         <v>0</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2748.1159228717574</v>
       </c>
       <c r="F59" s="5">
-        <f>F58*(1+B59)</f>
+        <f t="shared" si="10"/>
         <v>-2447.8097541625398</v>
       </c>
       <c r="I59" s="7">
         <v>0</v>
       </c>
       <c r="J59" s="7">
-        <f>J58*(1+B59)</f>
+        <f t="shared" si="11"/>
         <v>1819682.3612992442</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1819682.3612992442</v>
       </c>
       <c r="L59" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53000.457125220681</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999985E-2</v>
       </c>
     </row>
@@ -3273,30 +4853,30 @@
         <v>0</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2830.5594005579101</v>
       </c>
       <c r="F60" s="5">
-        <f>F59*(1+B60)</f>
+        <f t="shared" si="10"/>
         <v>-2521.2440467874162</v>
       </c>
       <c r="I60" s="7">
         <v>0</v>
       </c>
       <c r="J60" s="7">
-        <f>J59*(1+B60)</f>
+        <f t="shared" si="11"/>
         <v>1874272.8321382217</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1874272.8321382217</v>
       </c>
       <c r="L60" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54590.47083897749</v>
       </c>
       <c r="M60" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000089E-2</v>
       </c>
     </row>
@@ -3315,30 +4895,30 @@
         <v>0</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2915.4761825746473</v>
       </c>
       <c r="F61" s="5">
-        <f>F60*(1+B61)</f>
+        <f t="shared" si="10"/>
         <v>-2596.8813681910387</v>
       </c>
       <c r="I61" s="7">
         <v>0</v>
       </c>
       <c r="J61" s="7">
-        <f>J60*(1+B61)</f>
+        <f t="shared" si="11"/>
         <v>1930501.0171023684</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1930501.0171023684</v>
       </c>
       <c r="L61" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56228.184964146698</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000023E-2</v>
       </c>
     </row>
@@ -3357,30 +4937,30 @@
         <v>0</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3002.9404680518869</v>
       </c>
       <c r="F62" s="5">
-        <f>F61*(1+B62)</f>
+        <f t="shared" si="10"/>
         <v>-2674.78780923677</v>
       </c>
       <c r="I62" s="7">
         <v>0</v>
       </c>
       <c r="J62" s="7">
-        <f>J61*(1+B62)</f>
+        <f t="shared" si="11"/>
         <v>1988416.0476154394</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1988416.0476154394</v>
       </c>
       <c r="L62" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57915.030513070989</v>
       </c>
       <c r="M62" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999968E-2</v>
       </c>
     </row>
@@ -3399,30 +4979,30 @@
         <v>0</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3093.0286820934434</v>
       </c>
       <c r="F63" s="5">
-        <f>F62*(1+B63)</f>
+        <f t="shared" si="10"/>
         <v>-2755.031443513873</v>
       </c>
       <c r="I63" s="7">
         <v>0</v>
       </c>
       <c r="J63" s="7">
-        <f>J62*(1+B63)</f>
+        <f t="shared" si="11"/>
         <v>2048068.5290439026</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2048068.5290439026</v>
       </c>
       <c r="L63" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59652.481428463245</v>
       </c>
       <c r="M63" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.000000000000003E-2</v>
       </c>
     </row>
@@ -3441,30 +5021,30 @@
         <v>0</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3185.8195425562467</v>
       </c>
       <c r="F64" s="5">
-        <f>F63*(1+B64)</f>
+        <f t="shared" si="10"/>
         <v>-2837.6823868192891</v>
       </c>
       <c r="I64" s="7">
         <v>0</v>
       </c>
       <c r="J64" s="7">
-        <f>J63*(1+B64)</f>
+        <f t="shared" si="11"/>
         <v>2109510.5849152198</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2109510.5849152198</v>
       </c>
       <c r="L64" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61442.055871317163</v>
       </c>
       <c r="M64" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0000000000000041E-2</v>
       </c>
     </row>
@@ -3483,30 +5063,30 @@
         <v>0</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3281.3941288329343</v>
       </c>
       <c r="F65" s="5">
-        <f>F64*(1+B65)</f>
+        <f t="shared" si="10"/>
         <v>-2922.812858423868</v>
       </c>
       <c r="I65" s="7">
         <v>0</v>
       </c>
       <c r="J65" s="7">
-        <f>J64*(1+B65)</f>
+        <f t="shared" si="11"/>
         <v>2172795.9024626766</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2172795.9024626766</v>
       </c>
       <c r="L65" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>63285.317547456827</v>
       </c>
       <c r="M65" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.000000000000011E-2</v>
       </c>
     </row>
@@ -3525,30 +5105,30 @@
         <v>0</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3379.8359526979225</v>
       </c>
       <c r="F66" s="5">
-        <f>F65*(1+B66)</f>
+        <f t="shared" si="10"/>
         <v>-3010.497244176584</v>
       </c>
       <c r="I66" s="7">
         <v>0</v>
       </c>
       <c r="J66" s="7">
-        <f>J65*(1+B66)</f>
+        <f t="shared" si="11"/>
         <v>2237979.7795365569</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" ref="K66:K71" si="7">I66+J66</f>
+        <f t="shared" ref="K66:K71" si="12">I66+J66</f>
         <v>2237979.7795365569</v>
       </c>
       <c r="L66" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65183.877073880285</v>
       </c>
       <c r="M66" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999992E-2</v>
       </c>
     </row>
@@ -3567,30 +5147,30 @@
         <v>0</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3481.2310312788604</v>
       </c>
       <c r="F67" s="5">
-        <f>F66*(1+B67)</f>
+        <f t="shared" si="10"/>
         <v>-3100.8121615018817</v>
       </c>
       <c r="I67" s="7">
         <v>0</v>
       </c>
       <c r="J67" s="7">
-        <f>J66*(1+B67)</f>
+        <f t="shared" si="11"/>
         <v>2305119.1729226536</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2305119.1729226536</v>
       </c>
       <c r="L67" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67139.393386096694</v>
       </c>
       <c r="M67" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9999999999999995E-2</v>
       </c>
     </row>
@@ -3609,30 +5189,30 @@
         <v>0</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3585.6679622172264</v>
       </c>
       <c r="F68" s="5">
-        <f>F67*(1+B68)</f>
+        <f t="shared" si="10"/>
         <v>-3193.8365263469382</v>
       </c>
       <c r="I68" s="7">
         <v>0</v>
       </c>
       <c r="J68" s="7">
-        <f>J67*(1+B68)</f>
+        <f t="shared" si="11"/>
         <v>2374272.7481103335</v>
       </c>
       <c r="K68" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2374272.7481103335</v>
       </c>
       <c r="L68" s="8">
-        <f t="shared" ref="L68:L71" si="8">K68-K67</f>
+        <f t="shared" ref="L68:L71" si="13">K68-K67</f>
         <v>69153.575187679846</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" ref="M68:M71" si="9">L68/K67</f>
+        <f t="shared" ref="M68:M71" si="14">L68/K67</f>
         <v>3.0000000000000103E-2</v>
       </c>
     </row>
@@ -3651,30 +5231,30 @@
         <v>0</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3693.2380010837433</v>
       </c>
       <c r="F69" s="5">
-        <f>F68*(1+B69)</f>
+        <f t="shared" si="10"/>
         <v>-3289.6516221373463</v>
       </c>
       <c r="I69" s="7">
         <v>0</v>
       </c>
       <c r="J69" s="7">
-        <f>J68*(1+B69)</f>
+        <f t="shared" si="11"/>
         <v>2445500.9305536435</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2445500.9305536435</v>
       </c>
       <c r="L69" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>71228.182443310041</v>
       </c>
       <c r="M69" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0000000000000016E-2</v>
       </c>
     </row>
@@ -3693,30 +5273,30 @@
         <v>0</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3804.0351411162555</v>
       </c>
       <c r="F70" s="5">
-        <f>F69*(1+B70)</f>
+        <f t="shared" si="10"/>
         <v>-3388.3411708014669</v>
       </c>
       <c r="I70" s="7">
         <v>0</v>
       </c>
       <c r="J70" s="7">
-        <f>J69*(1+B70)</f>
+        <f t="shared" si="11"/>
         <v>2518865.9584702528</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2518865.9584702528</v>
       </c>
       <c r="L70" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>73365.02791660931</v>
       </c>
       <c r="M70" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0000000000000002E-2</v>
       </c>
     </row>
@@ -3735,35 +5315,36 @@
         <v>0</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3918.1561953497435</v>
       </c>
       <c r="F71" s="5">
-        <f>F70*(1+B71)</f>
+        <f t="shared" si="10"/>
         <v>-3489.9914059255111</v>
       </c>
       <c r="I71" s="7">
         <v>0</v>
       </c>
       <c r="J71" s="7">
-        <f>J70*(1+B71)</f>
+        <f t="shared" si="11"/>
         <v>2594431.9372243606</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2594431.9372243606</v>
       </c>
       <c r="L71" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>75565.97875410784</v>
       </c>
       <c r="M71" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0000000000000103E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>